--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Projetos\HovinJS\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
@@ -207,14 +212,14 @@
     <t>Somar, Subtrair, Multiplicar, Dividir, Clonar e Serializar</t>
   </si>
   <si>
-    <t>Criar novo por tamanho e Ângulo</t>
+    <t xml:space="preserve">Criar novo por tamanho e ângulo, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +418,14 @@
       <color rgb="FF55E9AD"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,9 +504,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,6 +539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -700,14 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="3" customWidth="1"/>
@@ -716,7 +731,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -730,7 +745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -744,7 +759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -758,7 +773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -772,7 +787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -786,7 +801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -798,7 +813,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -810,7 +825,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -822,7 +837,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -834,7 +849,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1">
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -846,7 +861,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -858,7 +873,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -870,7 +885,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1">
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -882,7 +897,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -894,7 +909,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1">
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -906,7 +921,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
@@ -918,7 +933,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1">
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -930,7 +945,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1">
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
@@ -942,7 +957,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1">
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
@@ -954,7 +969,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1">
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -966,7 +981,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1">
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -978,7 +993,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1">
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
@@ -990,7 +1005,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1">
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1017,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1">
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1029,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1">
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1041,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1">
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1053,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1">
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1065,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1">
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
@@ -1062,7 +1077,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1">
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1089,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1">
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
@@ -1086,7 +1101,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1">
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1113,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1">
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1125,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1">
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
@@ -1122,7 +1137,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1">
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1149,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1">
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>36</v>
       </c>
@@ -1146,7 +1161,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1">
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
@@ -1158,7 +1173,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1">
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1185,7 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1">
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
@@ -1182,7 +1197,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1">
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>41</v>
       </c>
@@ -1194,7 +1209,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1">
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +1221,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1">
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>41</v>
       </c>
@@ -1218,7 +1233,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1">
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
@@ -1230,7 +1245,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" s="2" customFormat="1">
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>48</v>
       </c>
@@ -1242,7 +1257,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1">
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1269,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1">
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>50</v>
       </c>
@@ -1266,7 +1281,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1">
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>50</v>
       </c>
@@ -1295,24 +1310,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Projetos\HovinJS\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
@@ -17,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Basics</t>
   </si>
@@ -191,9 +186,6 @@
     <t>Versão</t>
   </si>
   <si>
-    <t>Requisitos mínimos</t>
-  </si>
-  <si>
     <t>Ivehicle</t>
   </si>
   <si>
@@ -203,23 +195,71 @@
     <t>Core</t>
   </si>
   <si>
-    <t>Criar e herdar objetos, fazer merge de objetos, adicionar e remover eventos, parse JSONe converter para String</t>
-  </si>
-  <si>
     <t>Converter Graus para Radianos, converter Radianos para Graus</t>
   </si>
   <si>
     <t>Somar, Subtrair, Multiplicar, Dividir, Clonar e Serializar</t>
   </si>
   <si>
-    <t xml:space="preserve">Criar novo por tamanho e ângulo, </t>
+    <t>Funções</t>
+  </si>
+  <si>
+    <t>Criar novo por tamanho e ângulo, tamanho, tamanho ao quadrado, normalizar, ângulo, rotação, ângulo entre dois vetores, normalizar e retornar novo</t>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>x, y</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>width, height</t>
+  </si>
+  <si>
+    <t>herdar Point2</t>
+  </si>
+  <si>
+    <t>position, size</t>
+  </si>
+  <si>
+    <t>Escrita</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Criar e herdar objetos, fazer merge de objetos, adicionar e remover eventos, parse JSON e converter para String</t>
+  </si>
+  <si>
+    <t>Gerar número 0 a 1, inteiro de 0 a max, número de 0 a max, número de min a max, inteiro min a max</t>
+  </si>
+  <si>
+    <t>ConsoleHJS</t>
+  </si>
+  <si>
+    <t>default, options</t>
+  </si>
+  <si>
+    <t>Criar, criar estilo, debug, debug linha nova, esconder, limpar</t>
+  </si>
+  <si>
+    <t>id, size, path, file, isLoaded</t>
+  </si>
+  <si>
+    <t>Retorna o objeto Image, tamanho, get de largura e altura, se está carregado ou não, função de desenho padrão, clonar, serializar</t>
+  </si>
+  <si>
+    <t>Clonar e serializar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +355,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -343,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,6 +446,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,10 +559,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +593,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -715,23 +768,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="107.140625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="32.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="104.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -742,126 +797,184 @@
         <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -871,431 +984,528 @@
       <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>9</v>
+      <c r="D11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>13</v>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>13</v>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
+      <c r="A18" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
+      <c r="A26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
+      <c r="A27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1">
+      <c r="A30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1">
+      <c r="A31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1">
+      <c r="A32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="21">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1">
+      <c r="A33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>36</v>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1">
+      <c r="A34" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1">
+      <c r="A35" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>36</v>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1">
+      <c r="A36" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>41</v>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1">
+      <c r="A38" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1">
+      <c r="A39" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1">
+      <c r="A40" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="7">
-        <v>3</v>
-      </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1">
+      <c r="A41" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="7">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1">
       <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>48</v>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1">
+      <c r="A43" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1">
+      <c r="A44" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1">
+      <c r="A45" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1">
+      <c r="A46" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
+      <c r="A47" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
-  <conditionalFormatting sqref="C2:C46">
+  <autoFilter ref="A1:E1">
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <sortState ref="A2:F47">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:D47">
     <cfRule type="iconSet" priority="1">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -1310,24 +1520,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Basics</t>
   </si>
@@ -225,12 +225,6 @@
     <t>position, size</t>
   </si>
   <si>
-    <t>Escrita</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Criar e herdar objetos, fazer merge de objetos, adicionar e remover eventos, parse JSON e converter para String</t>
   </si>
   <si>
@@ -249,10 +243,19 @@
     <t>id, size, path, file, isLoaded</t>
   </si>
   <si>
-    <t>Retorna o objeto Image, tamanho, get de largura e altura, se está carregado ou não, função de desenho padrão, clonar, serializar</t>
-  </si>
-  <si>
     <t>Clonar e serializar</t>
+  </si>
+  <si>
+    <t>red, green, blue, alpha</t>
+  </si>
+  <si>
+    <t>Formatar RGB, formatar RGBA, Clonar, Serializar</t>
+  </si>
+  <si>
+    <t>Retorna o objeto Image, tamanho, retorna largura e altura, se está carregado ou não, função de desenho padrão, clonar, serializar</t>
+  </si>
+  <si>
+    <t>id, name, size, unit</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,14 +451,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,31 +775,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="32.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="113.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1">
+    <row r="1" spans="1:5" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -802,38 +807,32 @@
       <c r="E1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="22">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -842,18 +841,15 @@
       <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -862,18 +858,15 @@
       <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="30">
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -882,621 +875,576 @@
       <c r="E5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row r="8" spans="1:5" s="2" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="30">
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7"/>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="23">
         <v>2</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="2">
         <v>2</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="2">
         <v>2</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="2">
         <v>2</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="2">
         <v>2</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="2">
         <v>2</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="2">
         <v>2</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="2">
         <v>2</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="2">
         <v>2</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="2">
         <v>3</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="2">
         <v>3</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="2">
         <v>3</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="2">
         <v>3</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">

--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Basics</t>
   </si>
@@ -249,13 +249,49 @@
     <t>red, green, blue, alpha</t>
   </si>
   <si>
-    <t>Formatar RGB, formatar RGBA, Clonar, Serializar</t>
-  </si>
-  <si>
     <t>Retorna o objeto Image, tamanho, retorna largura e altura, se está carregado ou não, função de desenho padrão, clonar, serializar</t>
   </si>
   <si>
     <t>id, name, size, unit</t>
+  </si>
+  <si>
+    <t>start, end, stops</t>
+  </si>
+  <si>
+    <t>GradientStop</t>
+  </si>
+  <si>
+    <t>stop, color</t>
+  </si>
+  <si>
+    <t>texture, repetition</t>
+  </si>
+  <si>
+    <t>Clonar, Serializar</t>
+  </si>
+  <si>
+    <t>Html, Clonar, Serializar</t>
+  </si>
+  <si>
+    <t>Html, Formatar Hexadecimal, Formatar RGB, formatar RGBA, Clonar, Serializar</t>
+  </si>
+  <si>
+    <t>Adicionar stop, Remover stop, Html, Clonar, Serializar</t>
+  </si>
+  <si>
+    <t>Fill</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>herdar Fill, width</t>
+  </si>
+  <si>
+    <t>position, size, fill, stroke</t>
+  </si>
+  <si>
+    <t>Desenhar, Clonar, Serializar</t>
   </si>
 </sst>
 </file>
@@ -775,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -967,7 +1003,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1">
@@ -1094,11 +1130,15 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1">
       <c r="A22" s="12" t="s">
@@ -1179,7 +1219,7 @@
         <v>75</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1">
@@ -1189,11 +1229,15 @@
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="22">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="11" t="s">
@@ -1202,87 +1246,105 @@
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C30" s="22">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1">
+      <c r="A32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1">
+      <c r="A33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1">
-      <c r="A32" s="9" t="s">
+      <c r="C33" s="22">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1">
+      <c r="A34" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C34" s="23">
         <v>2</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1">
-      <c r="A33" s="13" t="s">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1">
+      <c r="A35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
-      <c r="A34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
-      <c r="A35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
@@ -1291,11 +1353,11 @@
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
-      <c r="A36" s="14" t="s">
-        <v>32</v>
+      <c r="A36" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -1304,11 +1366,11 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
-      <c r="A37" s="15" t="s">
-        <v>36</v>
+      <c r="A37" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -1317,11 +1379,11 @@
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
-      <c r="A38" s="15" t="s">
-        <v>36</v>
+      <c r="A38" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
@@ -1334,7 +1396,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -1343,11 +1405,11 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
-      <c r="A40" s="17" t="s">
-        <v>48</v>
+      <c r="A40" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
@@ -1356,11 +1418,11 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
-      <c r="A41" s="17" t="s">
-        <v>48</v>
+      <c r="A41" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
@@ -1373,7 +1435,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <v>2</v>
@@ -1382,37 +1444,37 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
-      <c r="A43" s="9" t="s">
-        <v>0</v>
+      <c r="A43" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
-      <c r="A44" s="9" t="s">
-        <v>0</v>
+      <c r="A44" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
-      <c r="A45" s="13" t="s">
-        <v>27</v>
+      <c r="A45" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
@@ -1421,11 +1483,11 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
-      <c r="A46" s="16" t="s">
-        <v>41</v>
+      <c r="A46" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
@@ -1434,17 +1496,43 @@
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
-      <c r="A47" s="16" t="s">
-        <v>41</v>
+      <c r="A47" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1">
+      <c r="A48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1">
+      <c r="A49" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
@@ -1453,7 +1541,7 @@
   <sortState ref="A2:F47">
     <sortCondition ref="C1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:D47">
+  <conditionalFormatting sqref="C2:D49">
     <cfRule type="iconSet" priority="1">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>

--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Projetos\HovinJS\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>Basics</t>
   </si>
@@ -186,9 +191,6 @@
     <t>Versão</t>
   </si>
   <si>
-    <t>Ivehicle</t>
-  </si>
-  <si>
     <t>Actor</t>
   </si>
   <si>
@@ -249,9 +251,6 @@
     <t>red, green, blue, alpha</t>
   </si>
   <si>
-    <t>Retorna o objeto Image, tamanho, retorna largura e altura, se está carregado ou não, função de desenho padrão, clonar, serializar</t>
-  </si>
-  <si>
     <t>id, name, size, unit</t>
   </si>
   <si>
@@ -292,13 +291,46 @@
   </si>
   <si>
     <t>Desenhar, Clonar, Serializar</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>position, size, stroke</t>
+  </si>
+  <si>
+    <t>position, radius, fill, stroke</t>
+  </si>
+  <si>
+    <t>position, size, sides, fill, stroke</t>
+  </si>
+  <si>
+    <t>Desenhar, Clonar, Serializar, Montar</t>
+  </si>
+  <si>
+    <t>Desenhar, Clonar, Serializar. Desenhar Oculto</t>
+  </si>
+  <si>
+    <t>Adicionar, Inserir, Remover, Desenhar, Clonar, Serializar</t>
+  </si>
+  <si>
+    <t>position, stroke, points</t>
+  </si>
+  <si>
+    <t>position, text, align, fill, stroke</t>
+  </si>
+  <si>
+    <t>IVehicle</t>
+  </si>
+  <si>
+    <t>herdar Texture, cols, rows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,9 +633,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,6 +668,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -810,14 +844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -827,7 +861,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -838,30 +872,30 @@
         <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -872,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -889,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -906,13 +940,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -923,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -940,30 +974,30 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
@@ -976,7 +1010,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -989,7 +1023,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1000,13 +1034,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
@@ -1019,7 +1053,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1066,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1">
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -1045,20 +1079,24 @@
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1">
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1">
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -1071,7 +1109,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>50</v>
       </c>
@@ -1084,12 +1122,12 @@
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1097,7 +1135,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
@@ -1110,20 +1148,24 @@
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1">
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -1134,230 +1176,254 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
+        <v>89</v>
+      </c>
+      <c r="C22" s="22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1">
-      <c r="A27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C27" s="22">
         <v>1</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="22">
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="22">
         <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C30" s="22">
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C31" s="22">
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C32" s="22">
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="22">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="22">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C35" s="23">
         <v>2</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
-      <c r="A35" s="13" t="s">
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
-      <c r="A36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -1365,12 +1431,12 @@
       <c r="D36" s="7"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -1378,12 +1444,12 @@
       <c r="D37" s="7"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
-      <c r="A38" s="14" t="s">
-        <v>32</v>
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
@@ -1391,12 +1457,12 @@
       <c r="D38" s="7"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
-      <c r="A39" s="15" t="s">
-        <v>36</v>
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -1404,12 +1470,12 @@
       <c r="D39" s="7"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
@@ -1417,12 +1483,12 @@
       <c r="D40" s="7"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
@@ -1430,12 +1496,12 @@
       <c r="D41" s="7"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1">
-      <c r="A42" s="17" t="s">
-        <v>48</v>
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>2</v>
@@ -1443,12 +1509,12 @@
       <c r="D42" s="7"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -1456,12 +1522,12 @@
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2">
         <v>2</v>
@@ -1469,25 +1535,25 @@
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
-      <c r="A45" s="9" t="s">
-        <v>0</v>
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
@@ -1495,12 +1561,12 @@
       <c r="D46" s="7"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
-      <c r="A47" s="13" t="s">
-        <v>27</v>
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
@@ -1508,12 +1574,12 @@
       <c r="D47" s="7"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1">
-      <c r="A48" s="16" t="s">
-        <v>41</v>
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
@@ -1521,12 +1587,12 @@
       <c r="D48" s="7"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
@@ -1534,15 +1600,26 @@
       <c r="D49" s="7"/>
       <c r="E49" s="4"/>
     </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
-    <filterColumn colId="3"/>
-  </autoFilter>
+  <autoFilter ref="A1:E1"/>
   <sortState ref="A2:F47">
     <sortCondition ref="C1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:D49">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="C2:D50">
+    <cfRule type="iconSet" priority="4">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1556,24 +1633,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
   <si>
     <t>Basics</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Funções</t>
   </si>
   <si>
-    <t>Criar novo por tamanho e ângulo, tamanho, tamanho ao quadrado, normalizar, ângulo, rotação, ângulo entre dois vetores, normalizar e retornar novo</t>
-  </si>
-  <si>
     <t>Atributos</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>GradientStop</t>
   </si>
   <si>
-    <t>stop, color</t>
-  </si>
-  <si>
     <t>texture, repetition</t>
   </si>
   <si>
@@ -324,6 +318,33 @@
   </si>
   <si>
     <t>herdar Texture, cols, rows</t>
+  </si>
+  <si>
+    <t>canvas, context, console</t>
+  </si>
+  <si>
+    <t>Desenhar Vetor, Desenhar Box, Debug no Console, Redimensionar, Limpar</t>
+  </si>
+  <si>
+    <t>Iniciar, Parar, Pausar, Cancelar pausa, Atualizar, Tempo atual desde ultimo update, Tempo total do Timer, Serializar</t>
+  </si>
+  <si>
+    <t>total, textures, manager, loaded</t>
+  </si>
+  <si>
+    <t>Adicionar textura e sprite único e array, Selecionar textura ou sprite, limpar, tamanho, total carregado, verificar se está terminado</t>
+  </si>
+  <si>
+    <t>GameLoop</t>
+  </si>
+  <si>
+    <t>started, paused, start, pause, last</t>
+  </si>
+  <si>
+    <t>Criar por tamanho e ângulo, tamanho, normalizar, ângulo, rotação, ângulo entre dois vetores, normalizar e retornar novo</t>
+  </si>
+  <si>
+    <t>Screen</t>
   </si>
 </sst>
 </file>
@@ -460,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,12 +501,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,9 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -530,6 +542,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,19 +863,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="113.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="120.28515625" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -868,757 +887,801 @@
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>61</v>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>62</v>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>64</v>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>63</v>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="22">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="22">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="22">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>19</v>
+      <c r="A24" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="22">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>19</v>
+      <c r="A25" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="22">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>91</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>19</v>
+      <c r="A26" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="22">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="22">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>13</v>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="22">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="22">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="22">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="23">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2">
         <v>2</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="D35" s="21"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>27</v>
+    <row r="36" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>9</v>
+    <row r="37" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>32</v>
+      <c r="A39" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>36</v>
+      <c r="A40" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>36</v>
+      <c r="A41" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>36</v>
+      <c r="A42" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>48</v>
+      <c r="A43" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>48</v>
+      <c r="A44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>48</v>
+      <c r="A45" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="2">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C45" s="19">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>27</v>
+      <c r="A48" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="2">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C48" s="19">
+        <v>1</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>41</v>
+      <c r="A49" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="2">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="C49" s="19">
+        <v>1</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>41</v>
+      <c r="A50" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2">
-        <v>3</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="19">
+        <v>1</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="19">
+        <v>1</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <sortState ref="A2:F47">
-    <sortCondition ref="C1"/>
+  <autoFilter ref="A1:E52">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:E52">
+    <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:D50">
+  <conditionalFormatting sqref="C2:D52">
     <cfRule type="iconSet" priority="4">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>

--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Projetos\HovinJS\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
@@ -17,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
   <si>
     <t>Basics</t>
   </si>
@@ -125,9 +120,6 @@
     <t>Game</t>
   </si>
   <si>
-    <t>Render</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -344,14 +336,14 @@
     <t>Criar por tamanho e ângulo, tamanho, normalizar, ângulo, rotação, ângulo entre dois vetores, normalizar e retornar novo</t>
   </si>
   <si>
-    <t>Screen</t>
+    <t>Viewport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,7 +611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,10 +643,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,7 +677,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -862,15 +852,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -880,41 +870,41 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>54</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="19">
         <v>1</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -925,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -942,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -959,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -976,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -993,30 +983,30 @@
         <v>1</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1027,11 +1017,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1034,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1047,7 @@
       <c r="D11" s="21"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
@@ -1070,7 +1060,7 @@
       <c r="D12" s="21"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="2" customFormat="1">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1073,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1096,7 +1086,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1099,7 @@
       <c r="D15" s="21"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1112,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
@@ -1135,46 +1125,46 @@
       <c r="D17" s="21"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="20">
+        <v>105</v>
+      </c>
+      <c r="C18" s="19">
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="19">
         <v>1</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1182,12 +1172,12 @@
       <c r="D20" s="21"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="2" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -1195,99 +1185,99 @@
       <c r="D21" s="21"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A22" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="20">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>32</v>
+    <row r="23" spans="1:5" s="2" customFormat="1">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C24" s="19">
         <v>1</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="19">
-        <v>1</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>44</v>
@@ -1298,25 +1288,25 @@
       <c r="D28" s="21"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>41</v>
+    <row r="29" spans="1:5" s="2" customFormat="1">
+      <c r="A29" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1324,22 +1314,22 @@
       <c r="D30" s="21"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>50</v>
+    <row r="31" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A31" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A32" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>38</v>
@@ -1350,9 +1340,9 @@
       <c r="D32" s="21"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A33" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>39</v>
@@ -1363,12 +1353,12 @@
       <c r="D33" s="21"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>36</v>
+    <row r="34" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A34" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -1376,9 +1366,9 @@
       <c r="D34" s="21"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A35" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>46</v>
@@ -1389,12 +1379,12 @@
       <c r="D35" s="21"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" hidden="1">
       <c r="A36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -1402,212 +1392,216 @@
       <c r="D36" s="21"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>48</v>
+    <row r="37" spans="1:5" s="2" customFormat="1">
+      <c r="A37" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C38" s="19">
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C39" s="19">
         <v>1</v>
       </c>
       <c r="D39" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C40" s="19">
         <v>1</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="19">
         <v>1</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="19">
         <v>1</v>
       </c>
       <c r="D42" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" s="19">
         <v>1</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="19">
         <v>1</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>19</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1">
+      <c r="A45" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C45" s="19">
         <v>1</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="19">
         <v>1</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="19">
         <v>1</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C48" s="19">
         <v>1</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C49" s="19">
         <v>1</v>
@@ -1616,62 +1610,45 @@
         <v>83</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C50" s="19">
         <v>1</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C51" s="19">
         <v>1</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="19">
-        <v>1</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E52">
+  <autoFilter ref="A1:E51">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -1681,8 +1658,8 @@
   <sortState ref="A2:E52">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:D52">
-    <cfRule type="iconSet" priority="4">
+  <conditionalFormatting sqref="C2:D51">
+    <cfRule type="iconSet" priority="5">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1696,25 +1673,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>37133.96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1668.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <f>SUM(A1:A2)</f>
+        <v>38802.6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/docs/Projeto.xlsx
+++ b/docs/Projeto.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Projetos\HovinJS\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$51</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>Basics</t>
   </si>
@@ -337,13 +342,22 @@
   </si>
   <si>
     <t>Viewport</t>
+  </si>
+  <si>
+    <t>buttons, position, global, target</t>
+  </si>
+  <si>
+    <t>Tem chave, limpar, desabilitar, capturas de evento</t>
+  </si>
+  <si>
+    <t>keys, mapped, target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,9 +657,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,6 +692,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -852,15 +868,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -870,7 +886,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -887,7 +903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -904,7 +920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -921,7 +937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -938,7 +954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -955,7 +971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -972,7 +988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="9" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1037,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="10" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1050,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1047,33 +1063,41 @@
       <c r="D11" s="21"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1110,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="15" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1099,7 +1123,7 @@
       <c r="D15" s="21"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="16" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1136,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="17" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1149,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -1142,7 +1166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
@@ -1159,7 +1183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1196,7 @@
       <c r="D20" s="21"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>32</v>
       </c>
@@ -1185,7 +1209,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="22" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>32</v>
       </c>
@@ -1198,7 +1222,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
@@ -1215,7 +1239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1256,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>40</v>
       </c>
@@ -1245,7 +1269,7 @@
       <c r="D25" s="21"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
@@ -1262,7 +1286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="27" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>40</v>
       </c>
@@ -1275,7 +1299,7 @@
       <c r="D27" s="21"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="28" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>40</v>
       </c>
@@ -1288,7 +1312,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>49</v>
       </c>
@@ -1301,7 +1325,7 @@
       <c r="D29" s="21"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>49</v>
       </c>
@@ -1314,7 +1338,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="31" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
@@ -1327,7 +1351,7 @@
       <c r="D31" s="21"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="32" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
@@ -1340,7 +1364,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="33" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
@@ -1353,7 +1377,7 @@
       <c r="D33" s="21"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="34" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>47</v>
       </c>
@@ -1366,7 +1390,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="35" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>47</v>
       </c>
@@ -1379,7 +1403,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" hidden="1">
+    <row r="36" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>47</v>
       </c>
@@ -1392,7 +1416,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1426,7 +1450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
@@ -1443,7 +1467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1460,7 +1484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
@@ -1477,7 +1501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
@@ -1494,7 +1518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
@@ -1511,7 +1535,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>19</v>
       </c>
@@ -1528,7 +1552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
@@ -1562,7 +1586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>13</v>
       </c>
@@ -1613,7 +1637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>13</v>
       </c>
@@ -1673,38 +1697,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>37133.96</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1668.64</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(A1:A2)</f>
         <v>38802.6</v>
